--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45012</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44578</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43347,7 +43347,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44076,7 +44076,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44200,7 +44200,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44428,7 +44428,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44485,7 +44485,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44542,7 +44542,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44961,7 +44961,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45375,7 +45375,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45437,7 +45437,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45494,7 +45494,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45618,7 +45618,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47113,7 +47113,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47175,7 +47175,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47232,7 +47232,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45012</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44578</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43347,7 +43347,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44076,7 +44076,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44200,7 +44200,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44428,7 +44428,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44485,7 +44485,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44542,7 +44542,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44961,7 +44961,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45375,7 +45375,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45437,7 +45437,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45494,7 +45494,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45618,7 +45618,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47113,7 +47113,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47175,7 +47175,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47232,7 +47232,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45012</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44578</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43347,7 +43347,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44076,7 +44076,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44200,7 +44200,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44428,7 +44428,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44485,7 +44485,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44542,7 +44542,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44961,7 +44961,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45375,7 +45375,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45437,7 +45437,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45494,7 +45494,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45618,7 +45618,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47113,7 +47113,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47175,7 +47175,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47232,7 +47232,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44076</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45012</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44578</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34943,7 +34943,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36919,7 +36919,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37953,7 +37953,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40278,7 +40278,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43347,7 +43347,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44076,7 +44076,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44200,7 +44200,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44257,7 +44257,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44314,7 +44314,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44428,7 +44428,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44485,7 +44485,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44542,7 +44542,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44961,7 +44961,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45375,7 +45375,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45437,7 +45437,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45494,7 +45494,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45618,7 +45618,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45804,7 +45804,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46523,7 +46523,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46580,7 +46580,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46637,7 +46637,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46699,7 +46699,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46756,7 +46756,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47113,7 +47113,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47175,7 +47175,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47232,7 +47232,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47294,7 +47294,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47413,7 +47413,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47527,7 +47527,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,14 +1276,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 42447-2020</t>
+          <t>A 34644-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44076</v>
+        <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,8 +1295,13 @@
           <t>NORRKÖPING</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1305,30 +1310,120 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedskivlav
+Blåmossa
+Grönpyrola
+Mindre märgborre
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34644-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34644-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34644-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34644-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34644-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34644-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 42447-2020</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44076</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Piploka
 Barkticka
@@ -1337,87 +1432,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 42447-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 42447-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 42447-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 42447-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 42447-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 42447-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 74267-2021</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44558</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>3.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>5</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Blodticka
@@ -1426,87 +1521,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 74267-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 74267-2021.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 74267-2021.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 74267-2021.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 74267-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 74267-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 14507-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45012</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
@@ -1515,91 +1610,91 @@
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 14507-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 14507-2023.png")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 14507-2023.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 14507-2023.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 14507-2023.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 14507-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 14507-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 21081-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43949</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>8.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Vedskivlav
@@ -1607,87 +1702,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 21081-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 21081-2020.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 21081-2020.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 21081-2020.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 21081-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 21081-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 40049-2020</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44067</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>10.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>4</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Blomkålssvamp
@@ -1695,92 +1790,92 @@
 Grovticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 40049-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 40049-2020.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 40049-2020.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 40049-2020.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 40049-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 40049-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 2165-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44578</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>BillerudKorsnäs AB</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Röd skogslilja
 Granbarkgnagare
@@ -1788,124 +1883,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 2165-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 2165-2022.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 2165-2022.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 2165-2022.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 2165-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 2165-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 34644-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Vedskivlav
-Blåmossa
-Mindre märgborre
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34644-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34644-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34644-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34644-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34644-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34644-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1916,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2196,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2559,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3369,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3459,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3719,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3894,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4074,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4249,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4334,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4424,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4514,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4599,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5039,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5129,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5191,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5248,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5362,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5419,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5476,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5538,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5595,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5652,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5709,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5771,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5828,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5885,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5942,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5999,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6056,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6118,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6175,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6232,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6289,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6346,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6403,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6465,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6527,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6589,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6646,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6703,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6760,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6817,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6879,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6936,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6993,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7050,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7107,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7169,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7226,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7283,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7345,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7407,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7464,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7521,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7578,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7635,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7692,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7749,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7806,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7863,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7920,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7982,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8039,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8096,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8158,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8215,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8272,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8329,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8386,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8448,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8510,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8567,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8624,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8681,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8738,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8795,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8852,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8909,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8966,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9023,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9080,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9137,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9194,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9251,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9308,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9365,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9422,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9479,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9536,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9593,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9650,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9707,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9764,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9821,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9878,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9935,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9992,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10054,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10111,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10168,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10225,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10282,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10344,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10401,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10458,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10572,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10629,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10686,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10748,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10805,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10867,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10924,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10981,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11038,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11095,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11152,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11209,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11271,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11328,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11385,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11442,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11504,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11561,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11623,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11680,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11742,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11804,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11861,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11923,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11980,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12037,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12094,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12151,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12208,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12265,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12327,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12384,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12441,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12498,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12555,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12612,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12674,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12731,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12788,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12845,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12907,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12964,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13021,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13083,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13145,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13207,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13269,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13331,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13388,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13445,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13502,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13559,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13616,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13673,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13730,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13787,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13844,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13901,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13958,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14015,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14077,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14139,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14201,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14258,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14315,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14372,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14429,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14491,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14915,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15272,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15329,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15386,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15443,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15500,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15557,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15614,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15671,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15728,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15790,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15852,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15909,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15966,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16023,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16080,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16137,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16194,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16256,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16318,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16375,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16432,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16494,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16551,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16608,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16670,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16727,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16789,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16851,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16913,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16975,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17032,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17089,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17151,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17208,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17265,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17322,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17379,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17436,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17498,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17560,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17617,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17674,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17731,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17793,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17850,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17907,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17964,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18021,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18083,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18145,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18207,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18264,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18321,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18378,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18435,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18497,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18559,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18621,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18678,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18740,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18797,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18854,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18911,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18973,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19035,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19097,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19159,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19221,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19278,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19335,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19392,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19454,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19511,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19573,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19630,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19692,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19754,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19816,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19878,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19940,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20002,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20064,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20126,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20188,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20250,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20312,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20374,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20431,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20612,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20674,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20736,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20798,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21093,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21217,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21274,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21331,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21388,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21445,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21507,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21564,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21621,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21678,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21797,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21859,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21916,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21973,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22030,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22087,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22144,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22201,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22258,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22315,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22600,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22657,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22714,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22771,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22833,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22895,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22957,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23019,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23081,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23143,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23267,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23329,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23500,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23557,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23614,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23671,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23733,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23790,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23847,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23909,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23966,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24023,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24080,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24137,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24194,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24251,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24313,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24375,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24432,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24489,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24546,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24608,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24670,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24732,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24794,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25104,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25275,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25337,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25394,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25456,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25513,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25570,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25632,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25689,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25746,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25803,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25860,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25922,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25984,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26046,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26108,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26165,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26222,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26279,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26336,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26398,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26455,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26517,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26579,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26636,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26693,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26755,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26817,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26879,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26936,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26993,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27050,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27112,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27174,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27231,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27288,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27345,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27402,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27459,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27516,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27573,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27630,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27687,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27744,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27801,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27858,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27915,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27977,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28039,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28101,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28163,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28225,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28287,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28411,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28711,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29063,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29125,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29187,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29249,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29311,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29373,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29430,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29487,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29544,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29606,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29668,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29725,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29787,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29844,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29901,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29963,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30020,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30077,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30134,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30191,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30253,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30310,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30367,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30424,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30486,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30543,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30600,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30657,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30719,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30776,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30838,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30895,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30952,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31009,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31071,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31128,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31190,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31247,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31304,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31361,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31418,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31480,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31537,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31599,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31661,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31723,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31780,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31837,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31894,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31951,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32008,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32065,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32127,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32184,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32241,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32298,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32355,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32412,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32469,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32531,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32593,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32655,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32717,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32774,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32831,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32888,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32945,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33002,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33064,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33126,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33183,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33240,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33297,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33354,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33411,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33468,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33530,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33592,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33649,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33763,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34006,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34063,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34125,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34244,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34472,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34529,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34586,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34643,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34700,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34757,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34881,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34943,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35005,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35067,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35129,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35186,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35248,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35305,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35367,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35429,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35486,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35543,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35605,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35662,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35724,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35781,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35843,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35900,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35962,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36019,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36076,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36133,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36195,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36252,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36314,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36371,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36428,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36490,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36552,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36614,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36676,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36738,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36800,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36857,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36919,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36981,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37038,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37100,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37157,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37219,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37281,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37343,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37405,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37467,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37524,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37586,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37648,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37710,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37767,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37829,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37891,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37953,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38015,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38072,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38134,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38191,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38253,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38315,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38372,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38429,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38486,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38548,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38605,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38662,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38724,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38781,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38838,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38900,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38962,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39019,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39081,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39138,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39195,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39252,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39309,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39366,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39423,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39480,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39537,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39594,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39651,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39708,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39765,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39822,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39879,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39936,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39993,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40050,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40107,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40164,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40221,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40278,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40335,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40392,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40449,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40506,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40563,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40620,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40677,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40734,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40796,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40853,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40915,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40972,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41029,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41086,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41143,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41205,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41262,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41324,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41381,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41443,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41500,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41557,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41614,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41671,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41733,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41790,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41847,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41909,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41971,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42033,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42090,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42147,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42204,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42261,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42318,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42375,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42432,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42494,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42556,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42618,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42680,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42742,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42804,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42861,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42918,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42980,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43042,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43104,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43166,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43228,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43290,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43347,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43404,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43466,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43523,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43585,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43647,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43709,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43766,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43828,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43890,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43952,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44014,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44076,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44138,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44200,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44257,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44314,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44371,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44428,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44485,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44542,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44599,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44656,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44718,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44780,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44842,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44899,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44961,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45023,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45080,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45137,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45194,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45251,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45313,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45375,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45437,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45494,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45556,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45618,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45680,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45742,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45804,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45866,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45928,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45985,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46042,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46099,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46161,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46218,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46275,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46337,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46399,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46461,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46523,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46580,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46637,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46699,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46756,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46813,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46875,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46937,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46994,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47051,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47113,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47175,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47232,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47294,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47356,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47413,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47470,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47527,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y771"/>
+  <dimension ref="A1:Y772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -638,27 +638,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 57525-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 57525-2022.xlsx", "A 57525-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 57525-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 57525-2022.png", "A 57525-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 57525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 57525-2022.docx", "A 57525-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 57525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 57525-2022.docx", "A 57525-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 57525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 57525-2022.docx", "A 57525-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 57525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 57525-2022.docx", "A 57525-2022")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,31 +743,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 5338-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 5338-2023.xlsx", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 5338-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 5338-2023.png", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 5338-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 5338-2023.png", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 5338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 5338-2023.docx", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 5338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 5338-2023.docx", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 5338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 5338-2023.docx", "A 5338-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 5338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 5338-2023.docx", "A 5338-2023")</f>
         <v/>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,31 +844,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 11516-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 11516-2021.xlsx", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 11516-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 11516-2021.png", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 11516-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 11516-2021.png", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 11516-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 11516-2021.docx", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 11516-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 11516-2021.docx", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 11516-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 11516-2021.docx", "A 11516-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 11516-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 11516-2021.docx", "A 11516-2021")</f>
         <v/>
       </c>
     </row>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,31 +945,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 17417-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 17417-2021.xlsx", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 17417-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 17417-2021.png", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 17417-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 17417-2021.png", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 17417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 17417-2021.docx", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 17417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 17417-2021.docx", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 17417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 17417-2021.docx", "A 17417-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 17417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 17417-2021.docx", "A 17417-2021")</f>
         <v/>
       </c>
     </row>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,31 +1048,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59029-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59029-2019.xlsx", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59029-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59029-2019.png", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 59029-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 59029-2019.png", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59029-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59029-2019.docx", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59029-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59029-2019.docx", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59029-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59029-2019.docx", "A 59029-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59029-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59029-2019.docx", "A 59029-2019")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 14506-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 14506-2023.xlsx", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 14506-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 14506-2023.png", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 14506-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 14506-2023.png", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 14506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 14506-2023.docx", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 14506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 14506-2023.docx", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 14506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 14506-2023.docx", "A 14506-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 14506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 14506-2023.docx", "A 14506-2023")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,27 +1249,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34351-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34351-2023.xlsx", "A 34351-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34351-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34351-2023.png", "A 34351-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34351-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34351-2023.docx", "A 34351-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34351-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34351-2023.docx", "A 34351-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34351-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34351-2023.docx", "A 34351-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34351-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34351-2023.docx", "A 34351-2023")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,27 +1344,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34644-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34644-2023.xlsx", "A 34644-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34644-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34644-2023.png", "A 34644-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34644-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34644-2023.docx", "A 34644-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34644-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34644-2023.docx", "A 34644-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34644-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34644-2023.docx", "A 34644-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34644-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34644-2023.docx", "A 34644-2023")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,27 +1433,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 42447-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 42447-2020.xlsx", "A 42447-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 42447-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 42447-2020.png", "A 42447-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 42447-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 42447-2020.docx", "A 42447-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 42447-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 42447-2020.docx", "A 42447-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 42447-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 42447-2020.docx", "A 42447-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 42447-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 42447-2020.docx", "A 42447-2020")</f>
         <v/>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,27 +1522,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 74267-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 74267-2021.xlsx", "A 74267-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 74267-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 74267-2021.png", "A 74267-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 74267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 74267-2021.docx", "A 74267-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 74267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 74267-2021.docx", "A 74267-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 74267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 74267-2021.docx", "A 74267-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 74267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 74267-2021.docx", "A 74267-2021")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 14507-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 14507-2023.xlsx", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 14507-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 14507-2023.png", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 14507-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 14507-2023.png", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 14507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 14507-2023.docx", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 14507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 14507-2023.docx", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 14507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 14507-2023.docx", "A 14507-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 14507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 14507-2023.docx", "A 14507-2023")</f>
         <v/>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,27 +1703,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 21081-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 21081-2020.xlsx", "A 21081-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 21081-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 21081-2020.png", "A 21081-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 21081-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 21081-2020.docx", "A 21081-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 21081-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 21081-2020.docx", "A 21081-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 21081-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 21081-2020.docx", "A 21081-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 21081-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 21081-2020.docx", "A 21081-2020")</f>
         <v/>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,27 +1791,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 40049-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 40049-2020.xlsx", "A 40049-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 40049-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 40049-2020.png", "A 40049-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 40049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 40049-2020.docx", "A 40049-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 40049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 40049-2020.docx", "A 40049-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 40049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 40049-2020.docx", "A 40049-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 40049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 40049-2020.docx", "A 40049-2020")</f>
         <v/>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1884,27 +1884,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 2165-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 2165-2022.xlsx", "A 2165-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 2165-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 2165-2022.png", "A 2165-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 2165-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 2165-2022.docx", "A 2165-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 2165-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 2165-2022.docx", "A 2165-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 2165-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 2165-2022.docx", "A 2165-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 2165-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 2165-2022.docx", "A 2165-2022")</f>
         <v/>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 69584-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 69584-2018.xlsx", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 69584-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 69584-2018.png", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 69584-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 69584-2018.png", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 69584-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 69584-2018.docx", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 69584-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 69584-2018.docx", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 69584-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 69584-2018.docx", "A 69584-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 69584-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 69584-2018.docx", "A 69584-2018")</f>
         <v/>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,27 +2072,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34176-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 34176-2019.xlsx", "A 34176-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34176-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 34176-2019.png", "A 34176-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34176-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 34176-2019.docx", "A 34176-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34176-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 34176-2019.docx", "A 34176-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34176-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 34176-2019.docx", "A 34176-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34176-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 34176-2019.docx", "A 34176-2019")</f>
         <v/>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,27 +2164,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 12419-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 12419-2021.xlsx", "A 12419-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 12419-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 12419-2021.png", "A 12419-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 12419-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 12419-2021.docx", "A 12419-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 12419-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 12419-2021.docx", "A 12419-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 12419-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 12419-2021.docx", "A 12419-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 12419-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 12419-2021.docx", "A 12419-2021")</f>
         <v/>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2256,27 +2256,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 861-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 861-2023.xlsx", "A 861-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 861-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 861-2023.png", "A 861-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 861-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 861-2023.docx", "A 861-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 861-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 861-2023.docx", "A 861-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 861-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 861-2023.docx", "A 861-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 861-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 861-2023.docx", "A 861-2023")</f>
         <v/>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2343,27 +2343,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 8468-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 8468-2023.xlsx", "A 8468-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 8468-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 8468-2023.png", "A 8468-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 8468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 8468-2023.docx", "A 8468-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 8468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 8468-2023.docx", "A 8468-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 8468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 8468-2023.docx", "A 8468-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 8468-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 8468-2023.docx", "A 8468-2023")</f>
         <v/>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,27 +2435,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 26385-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 26385-2023.xlsx", "A 26385-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 26385-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 26385-2023.png", "A 26385-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 26385-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 26385-2023.docx", "A 26385-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 26385-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 26385-2023.docx", "A 26385-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 26385-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 26385-2023.docx", "A 26385-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 26385-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 26385-2023.docx", "A 26385-2023")</f>
         <v/>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2527,27 +2527,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 31652-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 31652-2023.xlsx", "A 31652-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 31652-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 31652-2023.png", "A 31652-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 31652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 31652-2023.docx", "A 31652-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 31652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 31652-2023.docx", "A 31652-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 31652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 31652-2023.docx", "A 31652-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 31652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 31652-2023.docx", "A 31652-2023")</f>
         <v/>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2613,27 +2613,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 40291-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 40291-2020.xlsx", "A 40291-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 40291-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 40291-2020.png", "A 40291-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 40291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 40291-2020.docx", "A 40291-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 40291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 40291-2020.docx", "A 40291-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 40291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 40291-2020.docx", "A 40291-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 40291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 40291-2020.docx", "A 40291-2020")</f>
         <v/>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2704,31 +2704,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 49366-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 49366-2021.xlsx", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 49366-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 49366-2021.png", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 49366-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 49366-2021.png", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 49366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 49366-2021.docx", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 49366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 49366-2021.docx", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 49366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 49366-2021.docx", "A 49366-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 49366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 49366-2021.docx", "A 49366-2021")</f>
         <v/>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2799,27 +2799,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 33659-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 33659-2022.xlsx", "A 33659-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 33659-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 33659-2022.png", "A 33659-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 33659-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 33659-2022.docx", "A 33659-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 33659-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 33659-2022.docx", "A 33659-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 33659-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 33659-2022.docx", "A 33659-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 33659-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 33659-2022.docx", "A 33659-2022")</f>
         <v/>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2885,31 +2885,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 1083-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 1083-2023.xlsx", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 1083-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 1083-2023.png", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 1083-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/knärot/A 1083-2023.png", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 1083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 1083-2023.docx", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 1083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 1083-2023.docx", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 1083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 1083-2023.docx", "A 1083-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 1083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 1083-2023.docx", "A 1083-2023")</f>
         <v/>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,27 +2980,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 7211-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 7211-2023.xlsx", "A 7211-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 7211-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 7211-2023.png", "A 7211-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 7211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 7211-2023.docx", "A 7211-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 7211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 7211-2023.docx", "A 7211-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 7211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 7211-2023.docx", "A 7211-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 7211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 7211-2023.docx", "A 7211-2023")</f>
         <v/>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3071,27 +3071,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 18491-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 18491-2023.xlsx", "A 18491-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 18491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 18491-2023.png", "A 18491-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 18491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 18491-2023.docx", "A 18491-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 18491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 18491-2023.docx", "A 18491-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 18491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 18491-2023.docx", "A 18491-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 18491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 18491-2023.docx", "A 18491-2023")</f>
         <v/>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3162,27 +3162,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 38988-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 38988-2023.xlsx", "A 38988-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 38988-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 38988-2023.png", "A 38988-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 38988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 38988-2023.docx", "A 38988-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 38988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 38988-2023.docx", "A 38988-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 38988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 38988-2023.docx", "A 38988-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 38988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 38988-2023.docx", "A 38988-2023")</f>
         <v/>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3247,27 +3247,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59745-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59745-2018.xlsx", "A 59745-2018")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59745-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59745-2018.png", "A 59745-2018")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59745-2018.docx", "A 59745-2018")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59745-2018.docx", "A 59745-2018")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59745-2018.docx", "A 59745-2018")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59745-2018.docx", "A 59745-2018")</f>
         <v/>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3337,27 +3337,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 16378-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 16378-2019.xlsx", "A 16378-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 16378-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 16378-2019.png", "A 16378-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 16378-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 16378-2019.docx", "A 16378-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 16378-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 16378-2019.docx", "A 16378-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 16378-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 16378-2019.docx", "A 16378-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 16378-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 16378-2019.docx", "A 16378-2019")</f>
         <v/>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3427,27 +3427,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 24668-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 24668-2019.xlsx", "A 24668-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 24668-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 24668-2019.png", "A 24668-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 24668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 24668-2019.docx", "A 24668-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 24668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 24668-2019.docx", "A 24668-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 24668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 24668-2019.docx", "A 24668-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 24668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 24668-2019.docx", "A 24668-2019")</f>
         <v/>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3512,27 +3512,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 24841-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 24841-2019.xlsx", "A 24841-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 24841-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 24841-2019.png", "A 24841-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 24841-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 24841-2019.docx", "A 24841-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 24841-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 24841-2019.docx", "A 24841-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 24841-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 24841-2019.docx", "A 24841-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 24841-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 24841-2019.docx", "A 24841-2019")</f>
         <v/>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,27 +3602,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 30987-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 30987-2019.xlsx", "A 30987-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 30987-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 30987-2019.png", "A 30987-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 30987-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 30987-2019.docx", "A 30987-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 30987-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 30987-2019.docx", "A 30987-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 30987-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 30987-2019.docx", "A 30987-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 30987-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 30987-2019.docx", "A 30987-2019")</f>
         <v/>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,27 +3687,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 18902-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 18902-2020.xlsx", "A 18902-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 18902-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 18902-2020.png", "A 18902-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 18902-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 18902-2020.docx", "A 18902-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 18902-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 18902-2020.docx", "A 18902-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 18902-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 18902-2020.docx", "A 18902-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 18902-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 18902-2020.docx", "A 18902-2020")</f>
         <v/>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,27 +3777,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 55901-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 55901-2020.xlsx", "A 55901-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 55901-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 55901-2020.png", "A 55901-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 55901-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 55901-2020.docx", "A 55901-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 55901-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 55901-2020.docx", "A 55901-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 55901-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 55901-2020.docx", "A 55901-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 55901-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 55901-2020.docx", "A 55901-2020")</f>
         <v/>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3862,27 +3862,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 12457-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 12457-2021.xlsx", "A 12457-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 12457-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 12457-2021.png", "A 12457-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 12457-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 12457-2021.docx", "A 12457-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 12457-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 12457-2021.docx", "A 12457-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 12457-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 12457-2021.docx", "A 12457-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 12457-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 12457-2021.docx", "A 12457-2021")</f>
         <v/>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3952,27 +3952,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 19825-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 19825-2021.xlsx", "A 19825-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 19825-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 19825-2021.png", "A 19825-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 19825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 19825-2021.docx", "A 19825-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 19825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 19825-2021.docx", "A 19825-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 19825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 19825-2021.docx", "A 19825-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 19825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 19825-2021.docx", "A 19825-2021")</f>
         <v/>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4042,27 +4042,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 25392-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 25392-2021.xlsx", "A 25392-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 25392-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 25392-2021.png", "A 25392-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 25392-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 25392-2021.docx", "A 25392-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 25392-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 25392-2021.docx", "A 25392-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 25392-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 25392-2021.docx", "A 25392-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 25392-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 25392-2021.docx", "A 25392-2021")</f>
         <v/>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,27 +4132,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 25614-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 25614-2021.xlsx", "A 25614-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 25614-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 25614-2021.png", "A 25614-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 25614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 25614-2021.docx", "A 25614-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 25614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 25614-2021.docx", "A 25614-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 25614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 25614-2021.docx", "A 25614-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 25614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 25614-2021.docx", "A 25614-2021")</f>
         <v/>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,27 +4217,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 27863-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 27863-2021.xlsx", "A 27863-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 27863-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 27863-2021.png", "A 27863-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 27863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 27863-2021.docx", "A 27863-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 27863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 27863-2021.docx", "A 27863-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 27863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 27863-2021.docx", "A 27863-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 27863-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 27863-2021.docx", "A 27863-2021")</f>
         <v/>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,27 +4302,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 42188-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 42188-2021.xlsx", "A 42188-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 42188-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 42188-2021.png", "A 42188-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 42188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 42188-2021.docx", "A 42188-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 42188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 42188-2021.docx", "A 42188-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 42188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 42188-2021.docx", "A 42188-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 42188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 42188-2021.docx", "A 42188-2021")</f>
         <v/>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4392,27 +4392,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 48612-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 48612-2021.xlsx", "A 48612-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 48612-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 48612-2021.png", "A 48612-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 48612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 48612-2021.docx", "A 48612-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 48612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 48612-2021.docx", "A 48612-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 48612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 48612-2021.docx", "A 48612-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 48612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 48612-2021.docx", "A 48612-2021")</f>
         <v/>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4482,27 +4482,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 56584-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 56584-2021.xlsx", "A 56584-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 56584-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 56584-2021.png", "A 56584-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 56584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 56584-2021.docx", "A 56584-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 56584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 56584-2021.docx", "A 56584-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 56584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 56584-2021.docx", "A 56584-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 56584-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 56584-2021.docx", "A 56584-2021")</f>
         <v/>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4567,27 +4567,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59254-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 59254-2021.xlsx", "A 59254-2021")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59254-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 59254-2021.png", "A 59254-2021")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59254-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 59254-2021.docx", "A 59254-2021")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59254-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 59254-2021.docx", "A 59254-2021")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59254-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 59254-2021.docx", "A 59254-2021")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59254-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 59254-2021.docx", "A 59254-2021")</f>
         <v/>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4652,27 +4652,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 67652-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 67652-2021.xlsx", "A 67652-2021")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 67652-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 67652-2021.png", "A 67652-2021")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 67652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 67652-2021.docx", "A 67652-2021")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 67652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 67652-2021.docx", "A 67652-2021")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 67652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 67652-2021.docx", "A 67652-2021")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 67652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 67652-2021.docx", "A 67652-2021")</f>
         <v/>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4737,27 +4737,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 20377-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 20377-2023.xlsx", "A 20377-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 20377-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 20377-2023.png", "A 20377-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 20377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 20377-2023.docx", "A 20377-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 20377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 20377-2023.docx", "A 20377-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 20377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 20377-2023.docx", "A 20377-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 20377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 20377-2023.docx", "A 20377-2023")</f>
         <v/>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4827,27 +4827,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 21833-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 21833-2023.xlsx", "A 21833-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 21833-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 21833-2023.png", "A 21833-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 21833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 21833-2023.docx", "A 21833-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 21833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 21833-2023.docx", "A 21833-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 21833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 21833-2023.docx", "A 21833-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 21833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 21833-2023.docx", "A 21833-2023")</f>
         <v/>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4917,27 +4917,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 27107-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 27107-2023.xlsx", "A 27107-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 27107-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 27107-2023.png", "A 27107-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 27107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 27107-2023.docx", "A 27107-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 27107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 27107-2023.docx", "A 27107-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 27107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 27107-2023.docx", "A 27107-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 27107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 27107-2023.docx", "A 27107-2023")</f>
         <v/>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5007,27 +5007,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 29236-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 29236-2023.xlsx", "A 29236-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 29236-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 29236-2023.png", "A 29236-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 29236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 29236-2023.docx", "A 29236-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 29236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 29236-2023.docx", "A 29236-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 29236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 29236-2023.docx", "A 29236-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 29236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 29236-2023.docx", "A 29236-2023")</f>
         <v/>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5097,27 +5097,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 32510-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/artfynd/A 32510-2023.xlsx", "A 32510-2023")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 32510-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/kartor/A 32510-2023.png", "A 32510-2023")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 32510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomål/A 32510-2023.docx", "A 32510-2023")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 32510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/klagomålsmail/A 32510-2023.docx", "A 32510-2023")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 32510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsyn/A 32510-2023.docx", "A 32510-2023")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 32510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORRKOPING/tillsynsmail/A 32510-2023.docx", "A 32510-2023")</f>
         <v/>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
       </c>
       <c r="R770" s="2" t="inlineStr"/>
     </row>
-    <row r="771">
+    <row r="771" ht="15" customHeight="1">
       <c r="A771" t="inlineStr">
         <is>
           <t>A 38978-2023</t>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47580,6 +47580,68 @@
         <v>0</v>
       </c>
       <c r="R771" s="2" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>A 43460-2023</t>
+        </is>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C772" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G772" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="n">
+        <v>0</v>
+      </c>
+      <c r="J772" t="n">
+        <v>0</v>
+      </c>
+      <c r="K772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N772" t="n">
+        <v>0</v>
+      </c>
+      <c r="O772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R772" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47591,7 +47591,7 @@
         <v>45184</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>44865</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>44865</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44865</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44867</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44874</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44880</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44881</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44883</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>44889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44890</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44896</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44896</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44896</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44897</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44900</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44908</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44917</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44923</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44923</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44930</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44931</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44935</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44935</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44935</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44936</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44936</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44936</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44936</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44936</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44936</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44939</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44939</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44943</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>44950</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>44950</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>44956</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44956</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>44957</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44958</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44959</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>44970</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44974</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44974</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44977</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44977</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>44977</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>44977</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37588,7 +37588,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>44980</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44980</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>44980</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37893,7 +37893,7 @@
         <v>44980</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44981</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44983</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44984</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44987</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44988</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>44988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44992</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44992</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44992</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44993</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44998</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44998</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44999</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45000</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>45005</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45008</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         <v>45009</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45012</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45014</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45014</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45027</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45027</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45028</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45028</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45028</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45030</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45030</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45030</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>45030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>45030</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>45030</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>45030</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>45030</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40109,7 +40109,7 @@
         <v>45033</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40166,7 +40166,7 @@
         <v>45033</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40223,7 +40223,7 @@
         <v>45036</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>45037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>45037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40394,7 +40394,7 @@
         <v>45037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>45037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45040</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45042</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45042</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45042</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>45043</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45043</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>45043</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45043</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45043</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41207,7 +41207,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         <v>45043</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41326,7 +41326,7 @@
         <v>45044</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41383,7 +41383,7 @@
         <v>45048</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45048</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>45049</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>45049</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45049</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>45054</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45056</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>45056</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>45056</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45058</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45071</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>45071</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45071</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>45071</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45071</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45071</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45072</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45076</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45076</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45076</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45076</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45077</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>45077</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>45077</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>45089</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45090</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45091</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>45091</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45091</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45092</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45092</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45093</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45093</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>45093</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45093</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45093</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45093</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45096</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45096</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45096</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45096</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45104</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45106</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44316,7 +44316,7 @@
         <v>45106</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45106</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45106</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45106</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45110</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45110</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45112</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45112</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45112</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45114</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45114</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45114</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45117</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45117</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45117</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45117</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>45117</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45118</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45118</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>45118</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45119</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45120</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45120</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45121</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>45121</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>45121</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45126</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45126</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45128</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>45128</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>45129</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>45132</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>45141</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45145</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>45145</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>45148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>45148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45152</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45153</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45153</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47358,7 +47358,7 @@
         <v>45159</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47415,7 +47415,7 @@
         <v>45159</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45161</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45163</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47591,7 +47591,7 @@
         <v>45184</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44896</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44264</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>43774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45131</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>45139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44076</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44558</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>44067</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43655</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44267</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45086</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44789</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44935</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44970</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>45042</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43601</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43602</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43640</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44132</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44267</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44490</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44524</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45068</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45105</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43370</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43370</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43409</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43447</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43501</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43502</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43517</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43524</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43528</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43558</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43558</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43558</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43567</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43602</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43607</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43608</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43611</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43628</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43640</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43655</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43675</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43685</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43691</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43697</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43697</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43700</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43705</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43705</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43707</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43724</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43724</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43745</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43752</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         <v>43752</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>43753</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>43754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>43756</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>43756</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>43757</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43759</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43766</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>43776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>43777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>43781</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43782</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43782</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>43796</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43797</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43800</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43800</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43801</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43805</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43808</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43811</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43812</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>43812</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43818</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43826</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43826</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43857</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43857</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43857</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43860</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43860</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43864</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43868</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43868</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>43875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>43879</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>43880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>43885</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>43885</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>43885</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>43888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>43893</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43901</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43908</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>43910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43916</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43920</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43983</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43991</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43991</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>43991</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>43993</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>43994</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>43994</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>43997</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43999</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44006</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44008</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44008</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44008</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44008</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44011</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44011</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44014</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44015</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44018</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44027</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44029</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44048</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44053</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44055</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44061</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44063</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44064</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44067</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44067</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44067</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44067</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44083</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44084</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44095</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44096</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44096</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44096</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44098</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44103</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>44105</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44130</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44131</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44137</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44137</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44137</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44137</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44143</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44146</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44146</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44147</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44151</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44152</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44158</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44162</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44163</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44165</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44166</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44168</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44169</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44169</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44169</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44169</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44176</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44176</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44177</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44177</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44177</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44181</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44192</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44208</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44208</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44211</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44212</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44214</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44214</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44216</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44217</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44218</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44219</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>44221</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>44221</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44221</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44236</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44237</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44237</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44249</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44249</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44252</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44258</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44271</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44272</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44272</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44272</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44279</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44286</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44286</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44294</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44294</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44294</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44300</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44300</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>44301</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44301</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44301</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>44302</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44306</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>44307</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44308</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44312</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44312</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44312</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44313</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44313</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44321</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44321</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44322</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44326</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44326</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44326</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44326</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44328</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44335</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44348</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44354</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44354</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>44354</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44358</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44361</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44361</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44362</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44362</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44363</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44368</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44371</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44385</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44393</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44414</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44432</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44432</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44433</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44433</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44438</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44438</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44447</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44448</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44448</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44449</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44454</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44455</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>44455</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44456</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44456</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44459</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44462</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44462</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44468</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44469</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44469</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44475</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44489</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44490</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44494</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44494</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44497</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44502</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44502</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44503</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44503</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44504</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44512</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44515</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44517</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44524</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44524</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44530</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44532</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44536</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44537</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44537</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44543</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44545</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44557</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44557</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>44565</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44571</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44573</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44574</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44575</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44578</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44578</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44582</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29727,7 +29727,7 @@
         <v>44582</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44588</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44596</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44597</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44597</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44599</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44602</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44609</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>44622</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44630</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44630</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44644</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44649</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44649</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44665</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>44665</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>44671</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44673</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>44677</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44686</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44696</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>44713</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>44719</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44721</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44730</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44730</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44739</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44740</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44746</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44746</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44754</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44756</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44767</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44783</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44783</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44783</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44804</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44805</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44805</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44813</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44817</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44820</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44825</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44825</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44825</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44826</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44834</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44834</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44837</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44837</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44837</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44837</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44837</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44851</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44858</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44860</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44860</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44861</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44861</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44862</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44862</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34008,7